--- a/Интеграция с Directum/SNG_IntegrDirectum/Допсоглашение/ДС на изменение оклада (7).xlsx
+++ b/Интеграция с Directum/SNG_IntegrDirectum/Допсоглашение/ДС на изменение оклада (7).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A831F94-04D5-432C-BCC4-BEA13252E682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B2EE0-DC09-4B67-A21E-1986EFA834FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1705,6 +1705,15 @@
   </si>
   <si>
     <t>https://yt.surgutneftegas.ru:4443/issue/GLX-1101</t>
+  </si>
+  <si>
+    <t>нет в этом файле такого листа</t>
+  </si>
+  <si>
+    <t>тут я напрямую выхожу на APPHIST через if getfirst APPHIST where ((CONTDOC.nrec == APPHIST.CCONTDOC))</t>
+  </si>
+  <si>
+    <t>Точно надо брать APPOINMENTS.TAXRATE, а не APPHIST.TAXRATE?</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1904,6 +1913,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,7 +2036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2033,9 +2060,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2127,9 +2151,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2142,17 +2163,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2194,6 +2209,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2535,30 +2577,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="34"/>
-    <col min="2" max="2" width="18" style="35" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.81640625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="66.54296875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="33"/>
+    <col min="2" max="2" width="33.36328125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.81640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2581,800 +2622,838 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-    </row>
-    <row r="5" spans="1:7" ht="233.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A6" s="36">
+    <row r="6" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A6" s="35">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>505064008</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="36">
+    <row r="7" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="60" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="36">
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
         <v>4</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="36">
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>44927</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6">
         <v>111111</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-    </row>
-    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="36">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="35">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="37"/>
+      <c r="H12" s="66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20">
         <v>1</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+      <c r="F20" s="57"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20">
         <v>3</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+      <c r="F21" s="58"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="20">
         <v>4</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="20">
         <v>5</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="21">
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="20">
         <v>6</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21">
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20">
         <v>7</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="6">
         <v>111111</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21">
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20">
         <v>8</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>39814</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="21">
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="20">
         <v>9</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="55" t="s">
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" s="24" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-    </row>
-    <row r="29" spans="1:7" s="25" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>1</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="1:7" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="26">
+      <c r="G29" s="41"/>
+      <c r="H29" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="25">
         <v>2</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="1:7" s="25" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A31" s="26">
+      <c r="G30" s="41"/>
+      <c r="H30" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A31" s="25">
         <v>3</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="1:7" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="26">
+      <c r="G31" s="41"/>
+      <c r="H31" s="67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="25">
         <v>4</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7" s="25" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A33" s="26">
+      <c r="G32" s="42"/>
+      <c r="H32" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="25">
         <v>5</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-    </row>
-    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31"/>
-    </row>
-    <row r="49" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
-    </row>
-    <row r="51" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
-    </row>
-    <row r="52" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
-    </row>
-    <row r="53" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+    </row>
+    <row r="43" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-      <c r="H54"/>
+    <row r="54" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-      <c r="H55"/>
+    <row r="55" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56"/>
+    <row r="56" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="33"/>
-      <c r="H57"/>
+    <row r="57" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
       <c r="I57"/>
     </row>
   </sheetData>
